--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/17_Bingöl_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/17_Bingöl_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53B2FAA9-470B-424B-86A6-8D997DA1D599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDD1E794-633D-4034-BEF4-7B68ECF05C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{94B6C7CF-8C23-4DF1-8B1F-2D09B938E25D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{C83E7105-FEEE-4356-B559-ED84BBC79065}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{65AC09C7-6DA2-4D94-95D1-03CCE651D397}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D1587B1D-A0FE-4785-95B3-128365B9E127}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{927C79DB-635B-4D1C-BF80-6CAAEF2990C0}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6B488C47-A62F-4D37-93A8-2D64ABCBDB03}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A8D3B9D0-CE6A-4121-8A80-7B5A7556F6D1}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{2CAE2702-9832-46E2-AA1C-BD43C4AC7E34}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{07CE134F-6DBD-42C8-BAC3-18FA3D88DC44}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D7E2C113-9F1A-4CF8-AE98-929886A80DE3}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B92C4C08-A53E-4BD1-8B00-EE4DC369E81E}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{5CC7C05F-B77F-49FC-A7BE-953BC80E1750}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{4F5EEA37-72A4-4B8E-B627-21E194089D58}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{932BD0C3-EBC9-4FC3-876A-A314E914AF5F}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{9C11E621-5A3E-4FC1-BC6E-19889B31EA47}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5F1E638A-EA93-4FD5-8294-0EE12D83270E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E87ED92-58FF-4C3C-AE21-3C8EAF670729}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677E24E9-A493-45F8-83FD-391D84C530AA}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2520,18 +2520,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{78B2BD7F-8804-44E5-AE83-A6A42BFC5B9B}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{4BE5D539-B3A2-4BDD-B4E3-9F575EA853A2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3EF60A25-EC29-48E9-9E29-874DE05CB4A1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C21A265-A78C-432B-B649-B96226DED840}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ECB6B502-1526-4F1B-933C-2A62F34D470A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C8F9FE49-27E9-4342-9890-0A7F072E241B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{700B8754-C0D0-4BB3-B3FB-C1DA729CAEDE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{96E8E2BE-5C1C-44A3-A1A4-8155305E83DE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{21CCFC8B-A64C-4365-8319-B2ADA3CF9FCE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{13992A83-191C-4066-8613-6A063BD34AA0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9CC74A4F-519F-4964-9486-F91926349971}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{639E9BB2-23F9-4306-AC88-73EC2382F1E7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9A9F0006-098C-4191-8F86-8D5087E019F4}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{926EAAF8-474B-4B75-B13E-3C654A06058C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EE83618C-1459-4D17-B642-1C4546AA95E2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{172B66B7-3EAD-4F0E-B30F-39BDD47482F7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F732E58C-4137-45AE-A1FF-496B979F1A4B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66151FD8-FD6B-4B4D-8072-145977E5EAD9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6D3344D0-CB7B-4C7A-A5B2-F81586B370FA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07772A50-AC96-4C09-BF11-C2BA33E91A97}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{673C3F78-9588-47DA-A2ED-1C6AA877899B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{53A74A12-F0D0-487C-A89B-53E97F50FCA0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{939BDDCA-058B-4BE7-9DDE-272E2D441A29}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BEA8F42B-D26B-49C4-A20D-478F7470A930}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2544,7 +2544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE23BDA5-3A60-4B49-9374-5139373A94E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E917DD-9599-48B1-B637-115C5BCCF457}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3736,17 +3736,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5D740241-24D4-4F1F-8F0B-B36C691DF1ED}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{75F1E601-B37B-4B44-9BDB-EA039ACE8616}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{786F570A-2FA4-4C7F-B607-A8219A5FD487}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{86D0C0A0-A698-4F48-ABC5-891213B6862C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{70D2C016-90B5-40AF-BAC3-BF8A8CBBEF95}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6166963F-68CF-4B3D-B061-DBD64FCC6BA7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{364A9952-872F-466B-8842-A0EB7A6AC7BC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D0AF33C-B3EE-4AFD-8B6E-A3C583C70B70}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7E281FD8-93EC-40C2-AF52-AFD2D7F08402}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{40252C5E-23C5-42D9-B935-CFCCBD557417}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{129E82D1-9BFD-4032-AD52-92BC3649117A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{50D4658C-ED4A-4ECA-A15F-8DC02242125F}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{7419E0F2-073C-4576-BD5D-F56FB44174B2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0AE3E847-848C-40B0-AA0A-65E79DEFCC7B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B2E6150F-E3D6-4F26-B9E9-5C3B9E657E03}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1A5E4E52-F922-47AB-AD09-A660F974661B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4FB6E60A-246E-4421-A079-A1E26152FEE2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A0B47DE-D8B5-4659-86C6-87E4FA072E7E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7C3433B0-DC9A-46C7-9B5A-D65D807B2F74}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{806B2DB0-EC88-4A92-868E-F5566162A283}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{52ED4F50-2F78-45F5-AF53-8F3956781904}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D52FDFE2-ACB0-4997-9EC4-D16D3FB14E79}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3759,7 +3759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC57A70-6E67-45AE-90E9-686A7AB97A3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2E1F97-95AA-4E38-AAAD-01D407A99287}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -4943,18 +4943,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B29651BF-E4C4-42FD-972A-0E46D5352EC0}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{7B93574F-A225-4A0B-BE80-768254018918}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C442B226-CAA0-445D-9C70-EDEFCAB709A4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{300BEDE1-7A92-4735-9D31-DE90CA1AE166}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F9CF1DDA-6F05-48D1-B07D-682B1F49B90D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5CDE6755-E123-488D-A4D2-E068AC3F7805}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A07998C-E407-4874-A0C0-9DBE29D33CA3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84099434-B64C-4595-8188-A57DD6AD5F37}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0A7F4F5A-601D-4564-8C03-43F7370A6273}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DE470E34-86E1-49CC-8897-C855CD66A8D0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D5817312-7511-4ED2-AD55-BA518526A23C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{80885B3E-BDC1-489D-88BB-046969A32686}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A05C155B-DD98-4A26-A71B-D63D37E9F4A1}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{26D5D9A4-3EA7-4D64-905F-C25C21113512}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A5D6B84B-0F58-4B06-A9B9-A26C2CA49333}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{09EA8529-E94D-4B19-BADA-C333BAF9AFE7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB5589C7-9B9E-4260-96A3-BDC5FCA43F60}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AA1AC60C-67B8-43D5-903B-275B2388719C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9DDFF99D-DDDA-46F2-9849-F0DBBFDC1CEB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD9C0AA8-B41E-4D54-ADF9-AB595EDBD42D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C823ECE6-EF06-468A-A896-57A7ED049BC3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EB337B66-89BC-4263-8211-E569E3E0484C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30D1E5F4-88F0-4CAF-A12D-29012D72D06B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE3371BF-2905-489D-AF78-DF8AAA6D67F8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4967,7 +4967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DED986-E02C-4C30-B823-53AF68F4FC77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45ABE9AD-0164-4460-A58F-0FD822C05580}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6151,18 +6151,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5AD62128-F8D3-48B6-9FB6-EA7CF46C0F52}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CA38E5F9-A280-4E51-8A7E-DFB309C9265B}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{742D8DC3-11A9-42D3-81ED-9EAEFFC1668D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{661CC32C-0163-4715-B461-C5824AABA71C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CF2CD548-C4BE-4445-A506-58812E492DC1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0646A572-CD84-429C-8FDC-DAFB2A949DC5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C8394B7B-DBEA-49CF-9D6E-5E0A6FCFFA60}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{660565C1-F50E-4220-B8D7-81D457DE00D1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{49394625-CA2D-4363-BF08-CBE6C59C8DCA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{83C5111A-E2CB-40CA-B5F8-579AD11CC9AF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E823DA82-EB06-43B4-8000-2F9B2B367B6F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{41B7B2ED-1949-454E-85C6-636343509720}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD5FA7C3-F67D-4C58-871B-4D64E5B1EA5B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4334A9A9-4961-47F0-8D8C-F61652F4F265}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{0681DC1E-9968-4605-97A3-9BA2C531192A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E8F2F0FB-B01E-450E-8461-7623DDFA3F78}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A0E727E6-C5D9-42F9-B7F6-4E941027394D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4393EB5D-FC5E-4901-B431-DB770E1F58A8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E601EC50-1617-410B-9AC6-642EA5E2A94E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{42BF242F-3576-4E70-8777-BBCC30D5618C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C2B68060-5251-4C1C-8A44-8914B5585B89}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{44181CA9-891F-43EF-9BA2-0A18FAE94F83}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71DF0C58-C4A7-4189-A754-149716889D4D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BFEAF2D2-DF74-4836-BA30-019E69A09156}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6175,7 +6175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C5611-8AC4-4DCC-9067-86ADE0B8A81A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD5D74C-6047-40B1-BB98-6EBF6AF7BDF7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7382,18 +7382,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9A55D97-D887-4525-9BA5-E2D8C0FF9888}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{3EAB7AB7-2A8C-406C-921B-0AB6EE1EBBE6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{98B97D14-25B7-4880-B21A-2D2E6C6FB5F7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D342ECAB-B144-41A9-BCE5-42BCE749D33C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ED5EF79A-BE04-4D92-AE4A-97903444F681}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{918C32B2-275E-4A0B-AF46-9B9BF811659C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D84AF2DD-A9D6-4E69-A444-E26B327CDFA2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63236212-52FA-4D1F-9305-BAF68DB68F04}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2EEAD330-D71D-4720-947A-A76E4788A961}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A46582C3-E949-45AA-856E-3DDACA4DB457}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{37603106-B330-477A-B8E5-A5A627904E4B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CD8AB59F-7F90-4254-A003-037F1BD88DBB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1760979E-19D0-4362-A65D-4EB9B209B1D7}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{6404EC72-DACF-4177-962D-A82C5BF8D092}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1223B4D0-502C-4F80-AD7A-A624B4346F8E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{60B55EC8-44AB-4399-B394-AB37D99E66BA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D909D9C6-F6D1-467A-BC2B-8A10FEF245A3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DC4FEF1D-16AB-42FF-94F1-D16B554C821C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E38223DD-BDE1-4952-BC91-187B3B07B5F9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E047F1AA-64D6-4A21-BAA9-94760DD0B09C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7DAB79FF-F0CE-439E-80BD-3718CE8AC067}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{83BAD1DF-2C87-4AD3-AA0A-BCA4701C3626}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41D1E11D-0B5F-4B19-81D5-AD3DBAD22341}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3C5DA125-0A8B-4D7A-82B8-C08FA9670CED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7406,7 +7406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA99016-92FE-49A2-8124-68BBDDF959A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130F8611-1A62-4825-978B-AF3EC2B47922}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8614,18 +8614,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E8F4F38-C1D6-4825-B1C0-97F9934CFA84}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{F38BA626-1475-4019-A7D8-74FBDC1CFBB1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C8ADA933-2696-4F50-8CF9-BF255B760949}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{50C491D2-97CF-415C-AC5D-0205E11847F5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27C51495-9A7B-4910-BA26-8A7BE0480374}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2FEC0972-568F-4AA5-967B-5A902C40BD82}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C08EBAC3-D01A-445B-B60A-CDC4653F1FF9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6B0BD2B-96F9-47C0-ADFE-330637FB9105}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2C5AD323-0CD7-42CA-AA64-BA0C09777629}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4C6A3E94-8941-4D4A-9346-669292DA3438}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2CCF24A3-5D7E-4ECE-A8FD-A606A754586D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{00FAC6D8-0036-4147-B4A0-A948A50D77C9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3F73E61-AEBF-41A7-8C8D-612E5BA29398}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{F8712B22-7FAD-482C-A23B-1C964CC5A42D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AB1F2C39-804C-48A6-9853-3E6763D448F2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C6BAD16-2EA7-4EA6-A48F-5128A7168A77}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A435E0C3-CB4B-4C47-8C84-B6366DEFF3DD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9A0B9D13-7A95-415C-9EB1-347606A413E0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7F37B57-FAC7-4C6C-9880-57EAF11A3773}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D668340D-8039-4A71-A831-B31436A9D958}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BA51CD07-FF94-426E-8FD6-391046D4EFC0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CAA19DC9-550F-4A68-BD28-E9FB4D2CDCA9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{459A92A6-ABC6-4139-BE16-8D223CBFFC09}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E44F8FA2-1730-4967-8EC0-7771C7AF3E97}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8638,7 +8638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF9A2DC-C05F-4B3F-80A2-1544F66AE7D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E130F9A-3590-4AE4-90C3-3722D444EF10}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -9846,18 +9846,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FEB0888D-8B11-48F5-8556-7BBB22A66DE2}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{22489AD9-B43B-48D9-BED7-55679179E5D7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D0752E3B-9626-4CA2-ABB9-EC6535A1C353}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D2A838F3-0BC4-4711-AC4C-611CC232954E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F043031C-33A1-475D-A1D2-1490B982BA7E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BAA47BA1-9878-4003-B443-D39F0EF924CF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{35F112C2-E107-45D7-AC1F-9ABB781C60EB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7054C4F9-513B-44C0-8049-EDD9027A2E37}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DDAA67D4-34D5-4563-B5B0-24F2B4095A37}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D193C4B6-F045-40B4-8FCA-5257D504444C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B51930E1-8506-405A-8ED4-347B4763BF6D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7228FC2D-D2B3-4A41-A5C7-CA10040B5068}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5C997D2-2FD9-4CCA-A2E8-48AF653816B2}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{60840589-7543-4629-8B78-8340CD8F4798}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C1248C4E-67DB-4271-A147-9F95982D681C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F2A27CDB-6120-4B3B-AA59-A12E352D5577}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0ABABC78-89F1-4BA8-AFD7-839DD2C53EB8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{797CC059-DF8F-45DB-A244-D8DF3399761E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{51DB127C-805B-4095-9853-77CD7FCCC616}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{443FF4F4-F46A-4259-B6B0-B9C3226CDDA3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C9D094F0-E7AA-4892-952E-74627E979C57}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DE2E567E-C41E-4469-9B38-0502E71FB7E3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F397FFF-ADEC-49FC-A3B4-A62B7D52D7AB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E6BE7188-C09B-4644-8A7F-DF5A9AA113CA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9870,7 +9870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B47E81-1E45-47CE-A1B7-5084098D19BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9FE5F3-DBB9-4FEF-98B7-946CB357BCEB}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11078,18 +11078,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ACBFFAB3-922C-44EB-83F5-1E42353FBEC5}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{0452589C-EB28-474A-BE77-3BDB3C204DD9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2E2B8C7C-AA73-4BF7-97E6-644742C324F1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A2A1406C-ADBD-4F3E-B440-34EF0474BCF5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5180143-750F-4FE3-AB07-79F22332DA73}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BD1086F9-9D37-43FA-909D-4EE67ED7D65E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C9AD259-496B-4DFC-B0AD-1D8A2D4F71AD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D6EA2BE1-33B3-4D11-B858-005D9DDAE715}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1C62F171-68C3-4456-9923-1CD3869CED2C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C3451ABC-D5C9-4D26-B5C5-75648F477BD6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4256583D-DE6C-4B31-9CA6-190B6B31E326}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9EACC1A9-BA8F-4B47-8681-A7061A05A5F0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EF342B2B-3D53-4C08-A65E-CFA9BD6E9C5A}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{67BD46B3-1FA5-4CD5-AC79-F6028E8992D4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9F95B4E2-772B-46EA-9D4F-6DE5B14CC2A6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{66882545-1F77-434E-B1BB-6ADF4E0F3634}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{29396310-A241-44BF-AA36-707F972EBC51}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{38587756-8A79-4EBD-AB33-C3F9D83E9869}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7E27230A-7071-4100-9DD4-43256C26D04C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B1E53198-5FEA-4B61-B5FA-1500F32501CF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C19DE1A8-23D6-47E5-A6CD-F5086481D1FC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7ADC8D2B-BE9D-41FA-B489-7E328DDE3FBB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{954EDD68-D7FD-400F-8493-06240E3C973A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC6FBF35-CCB0-48BE-BC97-C021647C8C0E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11102,7 +11102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67AFC58-0022-4142-A3CD-CCA8159D60B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F88A746-BE34-4D8A-8E93-08FE6446A143}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12302,18 +12302,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D50246D5-1D48-4B59-B693-AF73312FDE9D}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{F983762C-7F26-4EC1-8501-ADABEBF39620}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B8320276-1096-4D39-B291-6A5E205FC2FA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B4039D51-56F2-43C0-8B29-3CB4055B5EB4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FBE18407-74CE-474F-9A39-1F0EA82380C5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{42240E7B-6118-4D3F-B1E2-BBD141D62145}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5089AACC-D6D7-4A23-A830-9F7D4199F019}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E7FB99B5-3FE5-4824-BA2B-54D12511C7B2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91E4FB96-B845-49FA-96FC-0C65A6A9A2D8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{35C13329-02CF-46DE-B0C5-D9F44EB060CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD86B306-4A7C-463F-A602-D1B0D8262953}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{31A1DD8F-B2A0-4E0A-A9B9-D1A9C5EF9D50}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E582E5DD-58C7-4AD6-8C68-12D7009B21A4}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{01484293-4414-46B2-9683-6537210D7CD4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5B275A1C-C7CB-4BE3-9120-F1A0DEF25D66}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A31C5983-2513-4A8C-8D06-BE81775DAF88}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DADB34F3-D528-443E-9A22-DE5FFC00C778}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EB6D2150-E385-4E8D-9282-800B9EBD328A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C45321FE-1E17-4016-AE81-6758CE73A24B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7ACB7EBA-49C1-414D-8671-7B21ABD5716A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6319C57F-8D2D-4E2D-9F86-111B1A8BE301}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DF8D6BD1-4557-404A-851D-5D82EA2866BB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{32C7D669-2BA6-418E-B1C3-26242DEE8646}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{84C8EC9C-E520-44B4-8ACB-0B848ED1844D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12326,7 +12326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A8D63D-75CD-4684-B56E-4FC1EBC7C63C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72A7D37-8514-4059-9F15-5AB21E3C8A89}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13522,18 +13522,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F23EE6B5-2368-42D5-B397-B5A1F18D0CD0}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{D6271F8B-FE08-4D6F-AD5E-D33EF11E989A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7F8E5C2D-B6D1-406D-8918-D9EEB06E9459}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EEBF50DE-EDE3-42BE-9B82-8793E8DCD8E2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5EC19288-B4C9-4336-8FB0-8B5A1B87B8E5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{016F32B0-8E34-489D-92FB-1F68B8E5A8F3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E8B9CB85-AFE8-4FF8-B5A6-7F027A81C06E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{594B5BF1-657B-462B-88C8-F4E7F708F8A4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{749C916A-D851-47E0-80B5-DD5295FDA32B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ED46BF8C-03B0-44A1-B1C6-0A9B8D2B981D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C7A668D-00B6-440B-8F1E-4E45FEB114C7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C6B143B5-7749-4FEB-AEDB-BBEE818E9C9B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5617ED56-801C-475A-955C-444F2A5B7BBC}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{BA6D3889-879B-4D50-99CC-57D88D76E69A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BE30776A-F4C4-40AB-82D1-3D6CC5AA1931}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE2BD2FF-4BB0-43C0-BBBC-A9183A2A252E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4F905BB2-2E8B-4090-A395-B784CD8BBC75}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F9FC418A-40EF-4734-AA2F-ABB0AAA3CF9D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B798473-EAE8-4441-AC5C-2F23967A456D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC8445CD-6992-49AC-8CC4-624413ABB170}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{11A71CDE-FF44-4FD1-9674-029E2319D992}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6C6C0E53-B50B-42C1-ADF0-44CFD810434B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F4D648DF-2E16-430F-BB58-3A9EE95528D7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A5B3B944-7361-4D92-9EAD-515CFED24C27}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13546,7 +13546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85AC14C-57B9-4E23-91F4-32C0E7BF32AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FD92FD-1AD3-49AF-B5DC-2A567DFDD409}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14742,18 +14742,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{383D7A17-3404-4B3A-828C-300518940F9C}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{173B076A-910E-4C9C-BBEB-324FB951BD7C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{563D1258-5315-4432-A885-12F931ED6A66}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1334F3DE-9BF5-4E73-9EE0-17ECC6AC1C02}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B8C25A70-F33B-420C-B411-EEFF92C3B9E5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C7912E6C-CF98-45E7-B836-7A8C9C954D7D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14279567-2297-4ED5-981A-123825B6A982}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5239F172-981B-483B-8588-3EDFBDFE5511}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D3B2C62D-E5F2-4B04-8704-73F09678A763}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3544BF71-069A-4597-8FA7-A3FF4DDC4B20}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E5F51EB5-ED2F-4EBE-8F8F-392EA7ADE572}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7D1BB17A-33DE-4E80-B97D-A2AB85B1B3F9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{434684C3-5A97-4B5E-8471-91288C197627}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{FA72FE86-7193-4BEC-8C08-A1DD0C818510}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{333ABDC2-294E-4DB8-B810-42383AA60C16}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{87D5F8CB-C749-4A00-864C-0E04F956B6DA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BE9263FE-354A-471C-84A8-BD99F812B7CD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E5DCA89C-6F37-42BD-B0DD-C331545202F3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E5C62704-C7BB-413B-BF66-E1B2ED2786E8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0296C30-F8E2-4C7F-A62A-B51EE61BE405}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7CA6A92-C25E-4D84-87DA-E6DF167F826D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2A628D19-C342-4616-9022-471266349986}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA52AFFB-56C6-42E3-A436-4F5DB1CC62A0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CB9E3B1A-4FA2-4C24-A1CE-6495DE0F7F84}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14766,7 +14766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F831A7-B96D-4620-9C07-E7CD61D63417}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F272A3C4-A7D0-441E-A329-0F44AADE3139}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15962,17 +15962,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F040481C-829F-469A-8DF9-15B9C2326EB5}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{89975012-B6FC-47FA-B3ED-14A8FC24D681}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{88AA7C73-E54C-4AA6-B5E7-859241C93BBE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{523D4678-C094-4A15-B970-986B351590EE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0BE2C781-A32D-40AE-83DF-C52A5A1BB42C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B2E494BC-44D8-4357-8B2E-EEE2514746C4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4792A1C3-BE85-46F4-98C2-B431ADB56A08}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9A314415-D77E-4FEB-BA6C-3716AB41FD2F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CB66406C-769E-4D3E-9827-51497868D325}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E44E7DC8-6644-401C-AC03-0FDAF4CF06FC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{36D03476-D65F-467B-BAEF-BC78902D458A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8070AA59-EA83-4AB7-9487-F4D84D89AED0}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{83432CF3-651A-48FC-8E25-5D1DF09961B6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1BEFA935-33F0-4297-803E-B0F74ED1F519}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1DE5977A-EAAD-4174-8035-87ED9A775A42}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{50DE1E63-C62B-4E32-94FB-DCBFEF25B1F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{101B2ED0-A0AC-4C3B-AFE2-49BE72BF013B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F93CB60B-D692-4D17-8678-345DEE62A0CE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A67454D3-76BD-4558-8A41-9F70384FCB2B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2FD5288F-C0C3-44D9-B7A7-F47B34B1B508}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{81400EBF-78FB-42FF-B052-485EE70FFE8B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E7647919-FA42-4747-B2FD-1CA4AF5051A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
